--- a/ComeBack.xlsx
+++ b/ComeBack.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kamil\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tiarek\Desktop\ComeBackAlgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="23040" windowHeight="9390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Euler" sheetId="1" r:id="rId1"/>
     <sheet name="Hamilton" sheetId="2" r:id="rId2"/>
     <sheet name="Hamilton_all" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -84,7 +84,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -94,6 +94,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -110,12 +122,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Dobry" xfId="1" builtinId="26"/>
@@ -135,7 +149,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
@@ -292,42 +306,47 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.5</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>1.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7F38-4330-B3A9-2D18AF301C7F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -404,7 +423,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.5</c:v>
@@ -434,12 +453,17 @@
                   <c:v>2.25</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.5</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7F38-4330-B3A9-2D18AF301C7F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -526,6 +550,31 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
@@ -669,7 +718,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
@@ -881,13 +930,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.25</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.75</c:v>
@@ -896,7 +945,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.75</c:v>
+                  <c:v>2.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2.5</c:v>
@@ -908,15 +957,20 @@
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.75</c:v>
+                  <c:v>2.25</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.75</c:v>
+                  <c:v>3.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-327A-4345-B685-8BF93DF17B87}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1072,21 +1126,26 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.25</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-327A-4345-B685-8BF93DF17B87}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1244,7 +1303,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
@@ -1379,6 +1438,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-700D-40E0-84A2-AD2855080DCA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3614,29 +3678,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3652,7 +3716,7 @@
       <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H2" t="s">
@@ -3667,29 +3731,29 @@
       <c r="K2" t="s">
         <v>4</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>100</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>9</v>
-      </c>
-      <c r="G3">
-        <f>AVERAGE(C3:F3)</f>
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G13" si="0">AVERAGE(C3:F3)</f>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -3701,23 +3765,23 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3">
         <f>AVERAGE(H3:K3)</f>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4">
-        <f t="shared" ref="B4:B13" si="0">B3+6</f>
+        <f t="shared" ref="B4:B13" si="1">B3+6</f>
         <v>106</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3725,9 +3789,9 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4">
-        <f t="shared" ref="G4:G13" si="1">AVERAGE(C4:F4)</f>
-        <v>0</v>
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -3741,31 +3805,31 @@
       <c r="K4">
         <v>1</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <f t="shared" ref="L4:L13" si="2">AVERAGE(H4:K4)</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
         <f t="shared" si="0"/>
-        <v>112</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -3779,31 +3843,31 @@
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="3">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
         <f t="shared" si="0"/>
-        <v>118</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -3817,90 +3881,90 @@
       <c r="K6">
         <v>0</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="3">
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7">
+        <f t="shared" si="1"/>
+        <v>124</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
         <f t="shared" si="0"/>
-        <v>124</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
+        <v>0.25</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
+        <v>130</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9">
-        <f t="shared" si="0"/>
         <v>136</v>
       </c>
       <c r="C9">
@@ -3915,47 +3979,47 @@
       <c r="F9">
         <v>4</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10">
         <f t="shared" si="1"/>
-        <v>1.25</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10">
+        <v>142</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <f t="shared" si="0"/>
-        <v>142</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -3969,31 +4033,31 @@
       <c r="K10">
         <v>3</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="3">
         <f t="shared" si="2"/>
         <v>1.75</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11">
+        <f t="shared" si="1"/>
+        <v>148</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
         <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -4007,31 +4071,31 @@
       <c r="K11">
         <v>1</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="3">
         <f t="shared" si="2"/>
         <v>1.25</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12">
+        <f t="shared" si="1"/>
+        <v>154</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
         <f t="shared" si="0"/>
-        <v>154</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="H12">
         <v>3</v>
@@ -4045,31 +4109,31 @@
       <c r="K12">
         <v>3</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="3">
         <f t="shared" si="2"/>
         <v>2.25</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>160</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
-      <c r="G13">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
+        <v>1.75</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -4078,14 +4142,14 @@
         <v>2</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="L13" s="3">
         <f t="shared" si="2"/>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>
@@ -4102,29 +4166,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -4140,7 +4204,7 @@
       <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H2" t="s">
@@ -4155,16 +4219,16 @@
       <c r="K2" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>100</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -4175,9 +4239,9 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <f>AVERAGE(C3:F3)</f>
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -4191,31 +4255,31 @@
       <c r="K3">
         <v>0</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <f>AVERAGE(H3:K3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4">
         <f>B3+20</f>
         <v>120</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <f t="shared" ref="G4:G13" si="0">AVERAGE(C4:F4)</f>
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -4229,12 +4293,12 @@
       <c r="K4">
         <v>0</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <f t="shared" ref="L4:L13" si="1">AVERAGE(H4:K4)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5">
         <f t="shared" ref="B5:B13" si="2">B4+20</f>
         <v>140</v>
@@ -4243,17 +4307,17 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -4267,12 +4331,12 @@
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -4289,7 +4353,7 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <f t="shared" si="0"/>
         <v>1.75</v>
       </c>
@@ -4305,12 +4369,12 @@
       <c r="K6">
         <v>0</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -4327,7 +4391,7 @@
       <c r="F7">
         <v>3</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -4343,12 +4407,12 @@
       <c r="K7">
         <v>0</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8">
         <f t="shared" si="2"/>
         <v>200</v>
@@ -4363,11 +4427,11 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>6</v>
-      </c>
-      <c r="G8" s="2">
+        <v>4</v>
+      </c>
+      <c r="G8" s="1">
         <f t="shared" si="0"/>
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4381,12 +4445,12 @@
       <c r="K8">
         <v>0</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9">
         <f t="shared" si="2"/>
         <v>220</v>
@@ -4403,7 +4467,7 @@
       <c r="F9">
         <v>5</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
@@ -4419,12 +4483,12 @@
       <c r="K9">
         <v>1</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10">
         <f t="shared" si="2"/>
         <v>240</v>
@@ -4441,7 +4505,7 @@
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
@@ -4449,7 +4513,7 @@
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -4457,12 +4521,12 @@
       <c r="K10">
         <v>1</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11">
         <f t="shared" si="2"/>
         <v>260</v>
@@ -4479,7 +4543,7 @@
       <c r="F11">
         <v>2</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
@@ -4487,7 +4551,7 @@
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -4495,12 +4559,12 @@
       <c r="K11">
         <v>1</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12">
         <f t="shared" si="2"/>
         <v>280</v>
@@ -4515,36 +4579,36 @@
         <v>3</v>
       </c>
       <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1">
         <f t="shared" si="0"/>
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>2</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="1">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -4553,11 +4617,11 @@
         <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1">
         <f t="shared" si="0"/>
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -4566,23 +4630,23 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="1">
         <f t="shared" si="1"/>
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>30</v>
       </c>
@@ -4590,7 +4654,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>2370</v>
       </c>
@@ -4598,7 +4662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>3626</v>
       </c>
@@ -4606,7 +4670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>10687</v>
       </c>
@@ -4614,7 +4678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>6000</v>
       </c>
@@ -4622,7 +4686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>3892</v>
       </c>
@@ -4630,7 +4694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>1986</v>
       </c>
@@ -4638,7 +4702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>11</v>
       </c>
@@ -4646,7 +4710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>32573</v>
       </c>
@@ -4654,7 +4718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>24603</v>
       </c>
@@ -4662,7 +4726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>42051</v>
       </c>
@@ -4670,7 +4734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>33042</v>
       </c>
@@ -4697,14 +4761,14 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>10</v>
       </c>
@@ -4712,7 +4776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>11</v>
       </c>
@@ -4720,7 +4784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>12</v>
       </c>
@@ -4728,7 +4792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>13</v>
       </c>
@@ -4736,7 +4800,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>14</v>
       </c>
@@ -4744,7 +4808,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>15</v>
       </c>
@@ -4752,7 +4816,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>16</v>
       </c>
@@ -4760,7 +4824,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>17</v>
       </c>

--- a/ComeBack.xlsx
+++ b/ComeBack.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tiarek\Desktop\ComeBackAlgorithm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projekty\ComeBackAlgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="23040" windowHeight="9390" activeTab="1"/>
+    <workbookView xWindow="936" yWindow="0" windowWidth="23040" windowHeight="9396" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Euler" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -125,11 +125,11 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Dobry" xfId="1" builtinId="26"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
@@ -342,7 +342,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7F38-4330-B3A9-2D18AF301C7F}"/>
             </c:ext>
@@ -459,7 +459,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7F38-4330-B3A9-2D18AF301C7F}"/>
             </c:ext>
@@ -474,11 +474,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1595252784"/>
-        <c:axId val="-1595245712"/>
+        <c:axId val="-902212224"/>
+        <c:axId val="-902200256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1595252784"/>
+        <c:axId val="-902212224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -521,7 +521,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1595245712"/>
+        <c:crossAx val="-902200256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -529,7 +529,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1595245712"/>
+        <c:axId val="-902200256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -575,7 +575,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -636,7 +635,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1595252784"/>
+        <c:crossAx val="-902212224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -650,7 +649,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -718,7 +716,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
@@ -860,7 +858,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="1"/>
@@ -966,7 +964,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-327A-4345-B685-8BF93DF17B87}"/>
             </c:ext>
@@ -1035,7 +1033,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="1"/>
@@ -1141,7 +1139,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-327A-4345-B685-8BF93DF17B87}"/>
             </c:ext>
@@ -1156,11 +1154,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1595252240"/>
-        <c:axId val="-1595251696"/>
+        <c:axId val="-902201888"/>
+        <c:axId val="-902198080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1595252240"/>
+        <c:axId val="-902201888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1203,7 +1201,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1595251696"/>
+        <c:crossAx val="-902198080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1211,7 +1209,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1595251696"/>
+        <c:axId val="-902198080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1221,7 +1219,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1595252240"/>
+        <c:crossAx val="-902201888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1303,7 +1301,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
@@ -1438,7 +1436,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-700D-40E0-84A2-AD2855080DCA}"/>
             </c:ext>
@@ -1453,11 +1451,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1595242992"/>
-        <c:axId val="-1595250064"/>
+        <c:axId val="-902197536"/>
+        <c:axId val="-902211680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1595242992"/>
+        <c:axId val="-902197536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1500,7 +1498,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1595250064"/>
+        <c:crossAx val="-902211680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1508,7 +1506,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1595250064"/>
+        <c:axId val="-902211680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1559,7 +1557,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1595242992"/>
+        <c:crossAx val="-902197536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3682,25 +3680,25 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3716,7 +3714,7 @@
       <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H2" t="s">
@@ -3731,11 +3729,11 @@
       <c r="K2" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>100</v>
       </c>
@@ -3751,7 +3749,7 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <f t="shared" ref="G3:G13" si="0">AVERAGE(C3:F3)</f>
         <v>0</v>
       </c>
@@ -3767,12 +3765,12 @@
       <c r="K3">
         <v>1</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="2">
         <f>AVERAGE(H3:K3)</f>
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4">
         <f t="shared" ref="B4:B13" si="1">B3+6</f>
         <v>106</v>
@@ -3789,7 +3787,7 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
@@ -3805,12 +3803,12 @@
       <c r="K4">
         <v>1</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="2">
         <f t="shared" ref="L4:L13" si="2">AVERAGE(H4:K4)</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -3827,7 +3825,7 @@
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
@@ -3843,12 +3841,12 @@
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="2">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -3865,7 +3863,7 @@
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
@@ -3881,12 +3879,12 @@
       <c r="K6">
         <v>0</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="2">
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -3903,7 +3901,7 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
@@ -3919,12 +3917,12 @@
       <c r="K7">
         <v>1</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="2">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8">
         <f t="shared" si="1"/>
         <v>130</v>
@@ -3941,7 +3939,7 @@
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
@@ -3957,12 +3955,12 @@
       <c r="K8">
         <v>1</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="2">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9">
         <f t="shared" si="1"/>
         <v>136</v>
@@ -3979,7 +3977,7 @@
       <c r="F9">
         <v>4</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
@@ -3995,12 +3993,12 @@
       <c r="K9">
         <v>1</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="2">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10">
         <f t="shared" si="1"/>
         <v>142</v>
@@ -4017,7 +4015,7 @@
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -4033,12 +4031,12 @@
       <c r="K10">
         <v>3</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="2">
         <f t="shared" si="2"/>
         <v>1.75</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11">
         <f t="shared" si="1"/>
         <v>148</v>
@@ -4055,7 +4053,7 @@
       <c r="F11">
         <v>0</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -4071,12 +4069,12 @@
       <c r="K11">
         <v>1</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="2">
         <f t="shared" si="2"/>
         <v>1.25</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12">
         <f t="shared" si="1"/>
         <v>154</v>
@@ -4093,7 +4091,7 @@
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
@@ -4109,12 +4107,12 @@
       <c r="K12">
         <v>3</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="2">
         <f t="shared" si="2"/>
         <v>2.25</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13">
         <f t="shared" si="1"/>
         <v>160</v>
@@ -4131,7 +4129,7 @@
       <c r="F13">
         <v>1</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <f t="shared" si="0"/>
         <v>1.75</v>
       </c>
@@ -4147,7 +4145,7 @@
       <c r="K13">
         <v>2</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="2">
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
@@ -4167,28 +4165,28 @@
   <dimension ref="B1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C15" sqref="C15:C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -4223,7 +4221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>100</v>
       </c>
@@ -4260,7 +4258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4">
         <f>B3+20</f>
         <v>120</v>
@@ -4298,7 +4296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5">
         <f t="shared" ref="B5:B13" si="2">B4+20</f>
         <v>140</v>
@@ -4336,7 +4334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -4374,7 +4372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -4412,7 +4410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8">
         <f t="shared" si="2"/>
         <v>200</v>
@@ -4450,7 +4448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9">
         <f t="shared" si="2"/>
         <v>220</v>
@@ -4488,7 +4486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10">
         <f t="shared" si="2"/>
         <v>240</v>
@@ -4526,7 +4524,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11">
         <f t="shared" si="2"/>
         <v>260</v>
@@ -4564,7 +4562,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12">
         <f t="shared" si="2"/>
         <v>280</v>
@@ -4602,7 +4600,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13">
         <f t="shared" si="2"/>
         <v>300</v>
@@ -4640,106 +4638,70 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>30</v>
       </c>
-      <c r="C15">
-        <v>70</v>
-      </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>2370</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>3626</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>10687</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>6000</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>3892</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>1986</v>
       </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>11</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>32573</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>24603</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>42051</v>
       </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>33042</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4761,14 +4723,14 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>10</v>
       </c>
@@ -4776,7 +4738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>11</v>
       </c>
@@ -4784,7 +4746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>12</v>
       </c>
@@ -4792,7 +4754,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>13</v>
       </c>
@@ -4800,7 +4762,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>14</v>
       </c>
@@ -4808,7 +4770,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>15</v>
       </c>
@@ -4816,7 +4778,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>16</v>
       </c>
@@ -4824,7 +4786,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>17</v>
       </c>
